--- a/app/src/main/assets/excel/A0填写索引表.xlsx
+++ b/app/src/main/assets/excel/A0填写索引表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\Android\AndroidStudioProjects\XmateNotes\app\src\main\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1AFD8-0FF5-4775-A819-C1AA58D5B49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA6798F-F9E9-49FF-8BD6-2A51F507FED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="摘要信息表" sheetId="1" r:id="rId1"/>
@@ -4546,7 +4546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X374"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O167" sqref="O167"/>
     </sheetView>
   </sheetViews>
@@ -15463,8 +15463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -15938,7 +15938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/app/src/main/assets/excel/A0填写索引表.xlsx
+++ b/app/src/main/assets/excel/A0填写索引表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\Android\AndroidStudioProjects\XmateNotes\app\src\main\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D893071-7A99-4041-864D-58B0CE233B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9E3D0-B71C-46A9-9847-C5633A9C431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="摘要信息表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="582">
   <si>
     <t>有效首行</t>
   </si>
@@ -1504,6 +1504,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>展示员</t>
@@ -1513,6 +1514,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -1791,6 +1793,18 @@
   </si>
   <si>
     <t>Evaluate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1810,6 +1824,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1817,12 +1832,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1852,12 +1869,14 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2373,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3202,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3215,34 +3234,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>580</v>
+      </c>
       <c r="E1" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="10" t="s">
+        <v>581</v>
+      </c>
       <c r="I1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3461,8 +3480,8 @@
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
+      <c r="C14" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>24</v>
@@ -3478,8 +3497,8 @@
     <row r="15" spans="1:11">
       <c r="A15" s="35"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
+      <c r="C15" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>26</v>
@@ -3495,8 +3514,8 @@
     <row r="16" spans="1:11">
       <c r="A16" s="35"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
+      <c r="C16" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>28</v>
@@ -4696,7 +4715,7 @@
   <dimension ref="A1:X372"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4732,8 +4751,8 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
+      <c r="F1" s="10" t="s">
+        <v>579</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>

--- a/app/src/main/assets/excel/A0填写索引表.xlsx
+++ b/app/src/main/assets/excel/A0填写索引表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\Android\AndroidStudioProjects\XmateNotes\app\src\main\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9E3D0-B71C-46A9-9847-C5633A9C431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB80852-D46B-484E-A083-377EF79C9A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="摘要信息表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="582">
   <si>
     <t>有效首行</t>
   </si>
@@ -2079,23 +2079,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2105,6 +2093,18 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="A51:XFD51"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3221,7 +3221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4053,7 +4053,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4714,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X372"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -6071,14 +6071,14 @@
       <c r="G36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>51</v>
+      <c r="H36" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>222</v>
@@ -6102,11 +6102,11 @@
       <c r="E37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>51</v>
+      <c r="F37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>51</v>
@@ -6279,6 +6279,12 @@
       <c r="O41" s="18" t="s">
         <v>234</v>
       </c>
+      <c r="P41" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="R41" s="18" t="s">
         <v>157</v>
       </c>
@@ -8795,14 +8801,14 @@
       <c r="G116" s="23">
         <v>0</v>
       </c>
-      <c r="H116" s="23">
-        <v>0</v>
-      </c>
-      <c r="I116" s="23">
-        <v>120</v>
-      </c>
-      <c r="J116" s="23">
-        <v>120</v>
+      <c r="H116" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="K116" t="s">
         <v>321</v>
@@ -8814,7 +8820,7 @@
       <c r="N116" s="18"/>
     </row>
     <row r="117" spans="1:18" ht="14.5">
-      <c r="A117" s="36" t="s">
+      <c r="A117" s="44" t="s">
         <v>578</v>
       </c>
       <c r="B117" s="35">
@@ -8867,7 +8873,7 @@
       </c>
     </row>
     <row r="118" spans="1:18" ht="14.5">
-      <c r="A118" s="36"/>
+      <c r="A118" s="44"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
       <c r="D118" s="22">
@@ -8914,7 +8920,7 @@
       </c>
     </row>
     <row r="119" spans="1:18" ht="14.5">
-      <c r="A119" s="36"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
       <c r="D119" s="22">
@@ -8961,7 +8967,7 @@
       </c>
     </row>
     <row r="120" spans="1:18" ht="14.5">
-      <c r="A120" s="36"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
       <c r="D120" s="22">
@@ -9008,7 +9014,7 @@
       </c>
     </row>
     <row r="121" spans="1:18" ht="14.5">
-      <c r="A121" s="36"/>
+      <c r="A121" s="44"/>
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
       <c r="D121" s="22">
@@ -9055,7 +9061,7 @@
       </c>
     </row>
     <row r="122" spans="1:18" ht="14.5">
-      <c r="A122" s="36"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="35"/>
       <c r="C122" s="35">
         <v>1</v>
@@ -9104,7 +9110,7 @@
       </c>
     </row>
     <row r="123" spans="1:18" ht="14.5">
-      <c r="A123" s="36"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
       <c r="D123" s="22">
@@ -9151,7 +9157,7 @@
       </c>
     </row>
     <row r="124" spans="1:18" ht="14.5">
-      <c r="A124" s="36"/>
+      <c r="A124" s="44"/>
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
       <c r="D124" s="22">
@@ -9198,7 +9204,7 @@
       </c>
     </row>
     <row r="125" spans="1:18" ht="14.5">
-      <c r="A125" s="36"/>
+      <c r="A125" s="44"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
       <c r="D125" s="22">
@@ -9245,7 +9251,7 @@
       </c>
     </row>
     <row r="126" spans="1:18" ht="14.5">
-      <c r="A126" s="36"/>
+      <c r="A126" s="44"/>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
       <c r="D126" s="22">
@@ -9292,7 +9298,7 @@
       </c>
     </row>
     <row r="127" spans="1:18" ht="14.5">
-      <c r="A127" s="36"/>
+      <c r="A127" s="44"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35">
         <v>2</v>
@@ -9341,7 +9347,7 @@
       </c>
     </row>
     <row r="128" spans="1:18" ht="14.5">
-      <c r="A128" s="36"/>
+      <c r="A128" s="44"/>
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
       <c r="D128" s="22">
@@ -9388,7 +9394,7 @@
       </c>
     </row>
     <row r="129" spans="1:18" ht="14.5">
-      <c r="A129" s="36"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
       <c r="D129" s="22">
@@ -9435,7 +9441,7 @@
       </c>
     </row>
     <row r="130" spans="1:18" ht="14.5">
-      <c r="A130" s="36"/>
+      <c r="A130" s="44"/>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
       <c r="D130" s="22">
@@ -9482,7 +9488,7 @@
       </c>
     </row>
     <row r="131" spans="1:18" ht="14.5">
-      <c r="A131" s="36"/>
+      <c r="A131" s="44"/>
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
       <c r="D131" s="22">
@@ -9529,7 +9535,7 @@
       </c>
     </row>
     <row r="132" spans="1:18" ht="14.5">
-      <c r="A132" s="36"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35">
         <v>3</v>
@@ -9578,7 +9584,7 @@
       </c>
     </row>
     <row r="133" spans="1:18" ht="14.5">
-      <c r="A133" s="36"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
       <c r="D133" s="22">
@@ -9625,7 +9631,7 @@
       </c>
     </row>
     <row r="134" spans="1:18" ht="14.5">
-      <c r="A134" s="36"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
       <c r="D134" s="22">
@@ -9672,7 +9678,7 @@
       </c>
     </row>
     <row r="135" spans="1:18" ht="14.5">
-      <c r="A135" s="36"/>
+      <c r="A135" s="44"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
       <c r="D135" s="22">
@@ -9719,7 +9725,7 @@
       </c>
     </row>
     <row r="136" spans="1:18" ht="14.5">
-      <c r="A136" s="36"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="35"/>
       <c r="C136" s="35"/>
       <c r="D136" s="22">
@@ -9766,7 +9772,7 @@
       </c>
     </row>
     <row r="137" spans="1:18" ht="14.5">
-      <c r="A137" s="36"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="35"/>
       <c r="C137" s="35">
         <v>4</v>
@@ -9815,7 +9821,7 @@
       </c>
     </row>
     <row r="138" spans="1:18" ht="14.5">
-      <c r="A138" s="36"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
       <c r="D138" s="22">
@@ -9862,7 +9868,7 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="14.5">
-      <c r="A139" s="36"/>
+      <c r="A139" s="44"/>
       <c r="B139" s="35"/>
       <c r="C139" s="35"/>
       <c r="D139" s="22">
@@ -9909,7 +9915,7 @@
       </c>
     </row>
     <row r="140" spans="1:18" ht="14.5">
-      <c r="A140" s="36"/>
+      <c r="A140" s="44"/>
       <c r="B140" s="35"/>
       <c r="C140" s="35"/>
       <c r="D140" s="22">
@@ -9956,7 +9962,7 @@
       </c>
     </row>
     <row r="141" spans="1:18" ht="14.5">
-      <c r="A141" s="36"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="35"/>
       <c r="C141" s="35"/>
       <c r="D141" s="22">
@@ -10003,7 +10009,7 @@
       </c>
     </row>
     <row r="142" spans="1:18" ht="14.5">
-      <c r="A142" s="36"/>
+      <c r="A142" s="44"/>
       <c r="B142" s="35"/>
       <c r="C142" s="35">
         <v>5</v>
@@ -10052,7 +10058,7 @@
       </c>
     </row>
     <row r="143" spans="1:18" ht="14.5">
-      <c r="A143" s="36"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="35"/>
       <c r="C143" s="35"/>
       <c r="D143" s="22">
@@ -10099,7 +10105,7 @@
       </c>
     </row>
     <row r="144" spans="1:18" ht="14.5">
-      <c r="A144" s="36"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="35"/>
       <c r="C144" s="35"/>
       <c r="D144" s="22">
@@ -10146,7 +10152,7 @@
       </c>
     </row>
     <row r="145" spans="1:18" ht="14.5">
-      <c r="A145" s="36"/>
+      <c r="A145" s="44"/>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
       <c r="D145" s="22">
@@ -10193,7 +10199,7 @@
       </c>
     </row>
     <row r="146" spans="1:18" ht="14.5">
-      <c r="A146" s="36"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="35"/>
       <c r="C146" s="35"/>
       <c r="D146" s="22">
@@ -10240,7 +10246,7 @@
       </c>
     </row>
     <row r="147" spans="1:18" ht="14.5">
-      <c r="A147" s="36"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="35"/>
       <c r="C147" s="35">
         <v>6</v>
@@ -10289,7 +10295,7 @@
       </c>
     </row>
     <row r="148" spans="1:18" ht="14.5">
-      <c r="A148" s="36"/>
+      <c r="A148" s="44"/>
       <c r="B148" s="35"/>
       <c r="C148" s="35"/>
       <c r="D148" s="22">
@@ -10336,7 +10342,7 @@
       </c>
     </row>
     <row r="149" spans="1:18" ht="14.5">
-      <c r="A149" s="36"/>
+      <c r="A149" s="44"/>
       <c r="B149" s="35"/>
       <c r="C149" s="35"/>
       <c r="D149" s="22">
@@ -10383,7 +10389,7 @@
       </c>
     </row>
     <row r="150" spans="1:18" ht="14.5">
-      <c r="A150" s="36"/>
+      <c r="A150" s="44"/>
       <c r="B150" s="35"/>
       <c r="C150" s="35"/>
       <c r="D150" s="22">
@@ -10430,7 +10436,7 @@
       </c>
     </row>
     <row r="151" spans="1:18" ht="14.5">
-      <c r="A151" s="36"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="35"/>
       <c r="C151" s="35"/>
       <c r="D151" s="22">
@@ -10477,7 +10483,7 @@
       </c>
     </row>
     <row r="152" spans="1:18" ht="14.5">
-      <c r="A152" s="36"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="35"/>
       <c r="C152" s="35">
         <v>7</v>
@@ -10526,7 +10532,7 @@
       </c>
     </row>
     <row r="153" spans="1:18" ht="14.5">
-      <c r="A153" s="36"/>
+      <c r="A153" s="44"/>
       <c r="B153" s="35"/>
       <c r="C153" s="35"/>
       <c r="D153" s="22">
@@ -10573,7 +10579,7 @@
       </c>
     </row>
     <row r="154" spans="1:18" ht="14.5">
-      <c r="A154" s="36"/>
+      <c r="A154" s="44"/>
       <c r="B154" s="35"/>
       <c r="C154" s="35"/>
       <c r="D154" s="22">
@@ -10620,7 +10626,7 @@
       </c>
     </row>
     <row r="155" spans="1:18" ht="14.5">
-      <c r="A155" s="36"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="35"/>
       <c r="C155" s="35"/>
       <c r="D155" s="22">
@@ -10667,7 +10673,7 @@
       </c>
     </row>
     <row r="156" spans="1:18" ht="14.5">
-      <c r="A156" s="36"/>
+      <c r="A156" s="44"/>
       <c r="B156" s="35"/>
       <c r="C156" s="35"/>
       <c r="D156" s="22">
@@ -10714,7 +10720,7 @@
       </c>
     </row>
     <row r="157" spans="1:18" ht="14.5">
-      <c r="A157" s="36"/>
+      <c r="A157" s="44"/>
       <c r="B157" s="35"/>
       <c r="C157" s="35">
         <v>8</v>
@@ -10763,7 +10769,7 @@
       </c>
     </row>
     <row r="158" spans="1:18" ht="14.5">
-      <c r="A158" s="36"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="35"/>
       <c r="C158" s="35"/>
       <c r="D158" s="22">
@@ -10810,7 +10816,7 @@
       </c>
     </row>
     <row r="159" spans="1:18" ht="14.5">
-      <c r="A159" s="36"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="35"/>
       <c r="C159" s="35"/>
       <c r="D159" s="22">
@@ -10857,7 +10863,7 @@
       </c>
     </row>
     <row r="160" spans="1:18" ht="14.5">
-      <c r="A160" s="36"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="35"/>
       <c r="C160" s="35"/>
       <c r="D160" s="22">
@@ -10904,7 +10910,7 @@
       </c>
     </row>
     <row r="161" spans="1:18" ht="14.5">
-      <c r="A161" s="36"/>
+      <c r="A161" s="44"/>
       <c r="B161" s="35"/>
       <c r="C161" s="35"/>
       <c r="D161" s="22">
@@ -10951,7 +10957,7 @@
       </c>
     </row>
     <row r="162" spans="1:18" ht="14.5">
-      <c r="A162" s="36"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35">
         <v>9</v>
@@ -11000,7 +11006,7 @@
       </c>
     </row>
     <row r="163" spans="1:18" ht="14.5">
-      <c r="A163" s="36"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="35"/>
       <c r="C163" s="35"/>
       <c r="D163" s="22">
@@ -11047,7 +11053,7 @@
       </c>
     </row>
     <row r="164" spans="1:18" ht="14.5">
-      <c r="A164" s="36"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="35"/>
       <c r="C164" s="35"/>
       <c r="D164" s="22">
@@ -11094,7 +11100,7 @@
       </c>
     </row>
     <row r="165" spans="1:18" ht="14.5">
-      <c r="A165" s="36"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="35"/>
       <c r="C165" s="35"/>
       <c r="D165" s="22">
@@ -11141,7 +11147,7 @@
       </c>
     </row>
     <row r="166" spans="1:18" ht="14.5">
-      <c r="A166" s="36"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="35"/>
       <c r="C166" s="35"/>
       <c r="D166" s="22">
@@ -11188,7 +11194,7 @@
       </c>
     </row>
     <row r="167" spans="1:18" ht="14.5">
-      <c r="A167" s="36"/>
+      <c r="A167" s="44"/>
       <c r="B167" s="35"/>
       <c r="C167" s="35">
         <v>10</v>
@@ -11237,7 +11243,7 @@
       </c>
     </row>
     <row r="168" spans="1:18" ht="14.5">
-      <c r="A168" s="36"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="35"/>
       <c r="C168" s="35"/>
       <c r="D168" s="22">
@@ -11284,7 +11290,7 @@
       </c>
     </row>
     <row r="169" spans="1:18" ht="14.5">
-      <c r="A169" s="36"/>
+      <c r="A169" s="44"/>
       <c r="B169" s="35"/>
       <c r="C169" s="35"/>
       <c r="D169" s="22">
@@ -11331,7 +11337,7 @@
       </c>
     </row>
     <row r="170" spans="1:18" ht="14.5">
-      <c r="A170" s="36"/>
+      <c r="A170" s="44"/>
       <c r="B170" s="35"/>
       <c r="C170" s="35"/>
       <c r="D170" s="22">
@@ -11378,7 +11384,7 @@
       </c>
     </row>
     <row r="171" spans="1:18" ht="14.5">
-      <c r="A171" s="36"/>
+      <c r="A171" s="44"/>
       <c r="B171" s="35"/>
       <c r="C171" s="35"/>
       <c r="D171" s="22">
@@ -11425,7 +11431,7 @@
       </c>
     </row>
     <row r="172" spans="1:18" ht="14.5">
-      <c r="A172" s="36"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="35"/>
       <c r="C172" s="35">
         <v>11</v>
@@ -11474,7 +11480,7 @@
       </c>
     </row>
     <row r="173" spans="1:18" ht="14.5">
-      <c r="A173" s="36"/>
+      <c r="A173" s="44"/>
       <c r="B173" s="35"/>
       <c r="C173" s="35"/>
       <c r="D173" s="22">
@@ -11521,7 +11527,7 @@
       </c>
     </row>
     <row r="174" spans="1:18" ht="14.5">
-      <c r="A174" s="36"/>
+      <c r="A174" s="44"/>
       <c r="B174" s="35"/>
       <c r="C174" s="35"/>
       <c r="D174" s="22">
@@ -11568,7 +11574,7 @@
       </c>
     </row>
     <row r="175" spans="1:18" ht="14.5">
-      <c r="A175" s="36"/>
+      <c r="A175" s="44"/>
       <c r="B175" s="35"/>
       <c r="C175" s="35"/>
       <c r="D175" s="22">
@@ -11615,7 +11621,7 @@
       </c>
     </row>
     <row r="176" spans="1:18" ht="14.5">
-      <c r="A176" s="36"/>
+      <c r="A176" s="44"/>
       <c r="B176" s="35"/>
       <c r="C176" s="35"/>
       <c r="D176" s="22">
@@ -11662,7 +11668,7 @@
       </c>
     </row>
     <row r="177" spans="1:18" ht="14.5">
-      <c r="A177" s="36"/>
+      <c r="A177" s="44"/>
       <c r="B177" s="35"/>
       <c r="C177" s="35">
         <v>12</v>
@@ -11711,7 +11717,7 @@
       </c>
     </row>
     <row r="178" spans="1:18" ht="14.5">
-      <c r="A178" s="36"/>
+      <c r="A178" s="44"/>
       <c r="B178" s="35"/>
       <c r="C178" s="35"/>
       <c r="D178" s="22">
@@ -11758,7 +11764,7 @@
       </c>
     </row>
     <row r="179" spans="1:18" ht="14.5">
-      <c r="A179" s="36"/>
+      <c r="A179" s="44"/>
       <c r="B179" s="35"/>
       <c r="C179" s="35"/>
       <c r="D179" s="22">
@@ -11805,7 +11811,7 @@
       </c>
     </row>
     <row r="180" spans="1:18" ht="14.5">
-      <c r="A180" s="36"/>
+      <c r="A180" s="44"/>
       <c r="B180" s="35"/>
       <c r="C180" s="35"/>
       <c r="D180" s="22">
@@ -11852,7 +11858,7 @@
       </c>
     </row>
     <row r="181" spans="1:18" ht="14.5">
-      <c r="A181" s="36"/>
+      <c r="A181" s="44"/>
       <c r="B181" s="35"/>
       <c r="C181" s="35"/>
       <c r="D181" s="22">
@@ -11899,7 +11905,7 @@
       </c>
     </row>
     <row r="182" spans="1:18" ht="14.5">
-      <c r="A182" s="36"/>
+      <c r="A182" s="44"/>
       <c r="B182" s="35"/>
       <c r="C182" s="35">
         <v>13</v>
@@ -11948,7 +11954,7 @@
       </c>
     </row>
     <row r="183" spans="1:18" ht="14.5">
-      <c r="A183" s="36"/>
+      <c r="A183" s="44"/>
       <c r="B183" s="35"/>
       <c r="C183" s="35"/>
       <c r="D183" s="22">
@@ -11995,7 +12001,7 @@
       </c>
     </row>
     <row r="184" spans="1:18" ht="14.5">
-      <c r="A184" s="36"/>
+      <c r="A184" s="44"/>
       <c r="B184" s="35"/>
       <c r="C184" s="35"/>
       <c r="D184" s="22">
@@ -12042,7 +12048,7 @@
       </c>
     </row>
     <row r="185" spans="1:18" ht="14.5">
-      <c r="A185" s="36"/>
+      <c r="A185" s="44"/>
       <c r="B185" s="35"/>
       <c r="C185" s="35"/>
       <c r="D185" s="22">
@@ -12089,7 +12095,7 @@
       </c>
     </row>
     <row r="186" spans="1:18" ht="14.5">
-      <c r="A186" s="36"/>
+      <c r="A186" s="44"/>
       <c r="B186" s="35"/>
       <c r="C186" s="35"/>
       <c r="D186" s="22">
@@ -12136,7 +12142,7 @@
       </c>
     </row>
     <row r="187" spans="1:18" ht="14.5">
-      <c r="A187" s="36"/>
+      <c r="A187" s="44"/>
       <c r="B187" s="35"/>
       <c r="C187" s="35">
         <v>14</v>
@@ -12165,7 +12171,7 @@
       <c r="K187" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="L187" s="38" t="s">
+      <c r="L187" s="42" t="s">
         <v>417</v>
       </c>
       <c r="M187" s="26"/>
@@ -12174,7 +12180,7 @@
       </c>
     </row>
     <row r="188" spans="1:18" ht="14.5">
-      <c r="A188" s="36"/>
+      <c r="A188" s="44"/>
       <c r="B188" s="35"/>
       <c r="C188" s="35"/>
       <c r="D188" s="22">
@@ -12201,14 +12207,14 @@
       <c r="K188" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L188" s="38"/>
+      <c r="L188" s="42"/>
       <c r="M188" s="26"/>
       <c r="N188" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="14.5">
-      <c r="A189" s="36"/>
+      <c r="A189" s="44"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
       <c r="D189" s="22">
@@ -12235,14 +12241,14 @@
       <c r="K189" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="L189" s="38"/>
+      <c r="L189" s="42"/>
       <c r="M189" s="26"/>
       <c r="N189" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="14.5">
-      <c r="A190" s="36"/>
+      <c r="A190" s="44"/>
       <c r="B190" s="35"/>
       <c r="C190" s="35"/>
       <c r="D190" s="22">
@@ -12269,14 +12275,14 @@
       <c r="K190" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="L190" s="38"/>
+      <c r="L190" s="42"/>
       <c r="M190" s="26"/>
       <c r="N190" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="14.5">
-      <c r="A191" s="36"/>
+      <c r="A191" s="44"/>
       <c r="B191" s="35"/>
       <c r="C191" s="35"/>
       <c r="D191" s="22">
@@ -12303,14 +12309,14 @@
       <c r="K191" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="L191" s="38"/>
+      <c r="L191" s="42"/>
       <c r="M191" s="26"/>
       <c r="N191" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:18" ht="14.5">
-      <c r="A192" s="36"/>
+      <c r="A192" s="44"/>
       <c r="B192" s="35"/>
       <c r="C192" s="35"/>
       <c r="D192" s="22">
@@ -12337,14 +12343,14 @@
       <c r="K192" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="L192" s="38"/>
+      <c r="L192" s="42"/>
       <c r="M192" s="26"/>
       <c r="N192" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="14.5">
-      <c r="A193" s="36"/>
+      <c r="A193" s="44"/>
       <c r="B193" s="35"/>
       <c r="C193" s="35"/>
       <c r="D193" s="22">
@@ -12371,14 +12377,14 @@
       <c r="K193" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="L193" s="38"/>
+      <c r="L193" s="42"/>
       <c r="M193" s="26"/>
       <c r="N193" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="14.5">
-      <c r="A194" s="36"/>
+      <c r="A194" s="44"/>
       <c r="B194" s="35"/>
       <c r="C194" s="35"/>
       <c r="D194" s="22">
@@ -12405,14 +12411,14 @@
       <c r="K194" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="L194" s="38"/>
+      <c r="L194" s="42"/>
       <c r="M194" s="26"/>
       <c r="N194" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="14.5">
-      <c r="A195" s="36"/>
+      <c r="A195" s="44"/>
       <c r="B195" s="35"/>
       <c r="C195" s="35"/>
       <c r="D195" s="22">
@@ -12439,14 +12445,14 @@
       <c r="K195" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="L195" s="39"/>
+      <c r="L195" s="43"/>
       <c r="M195" s="26"/>
       <c r="N195" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="14.5">
-      <c r="A196" s="36"/>
+      <c r="A196" s="44"/>
       <c r="B196" s="35"/>
       <c r="C196" s="35"/>
       <c r="D196" s="22">
@@ -12473,7 +12479,7 @@
       <c r="K196" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L196" s="40" t="s">
+      <c r="L196" s="36" t="s">
         <v>425</v>
       </c>
       <c r="M196" s="27"/>
@@ -12482,7 +12488,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="14.5">
-      <c r="A197" s="36"/>
+      <c r="A197" s="44"/>
       <c r="B197" s="35"/>
       <c r="C197" s="35"/>
       <c r="D197" s="22">
@@ -12509,14 +12515,14 @@
       <c r="K197" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L197" s="40"/>
+      <c r="L197" s="36"/>
       <c r="M197" s="27"/>
       <c r="N197" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="14.5">
-      <c r="A198" s="36"/>
+      <c r="A198" s="44"/>
       <c r="B198" s="35"/>
       <c r="C198" s="35"/>
       <c r="D198" s="22">
@@ -12543,14 +12549,14 @@
       <c r="K198" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L198" s="40"/>
+      <c r="L198" s="36"/>
       <c r="M198" s="27"/>
       <c r="N198" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="14.5">
-      <c r="A199" s="36"/>
+      <c r="A199" s="44"/>
       <c r="B199" s="35"/>
       <c r="C199" s="35"/>
       <c r="D199" s="22">
@@ -12577,7 +12583,7 @@
       <c r="K199" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L199" s="40" t="s">
+      <c r="L199" s="36" t="s">
         <v>426</v>
       </c>
       <c r="M199" s="27"/>
@@ -12586,7 +12592,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" ht="14.5">
-      <c r="A200" s="36"/>
+      <c r="A200" s="44"/>
       <c r="B200" s="35"/>
       <c r="C200" s="35"/>
       <c r="D200" s="22">
@@ -12613,14 +12619,14 @@
       <c r="K200" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L200" s="40"/>
+      <c r="L200" s="36"/>
       <c r="M200" s="27"/>
       <c r="N200" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="14.5">
-      <c r="A201" s="36"/>
+      <c r="A201" s="44"/>
       <c r="B201" s="35"/>
       <c r="C201" s="35"/>
       <c r="D201" s="22">
@@ -12647,14 +12653,14 @@
       <c r="K201" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L201" s="40"/>
+      <c r="L201" s="36"/>
       <c r="M201" s="27"/>
       <c r="N201" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="14.5">
-      <c r="A202" s="36"/>
+      <c r="A202" s="44"/>
       <c r="B202" s="35"/>
       <c r="C202" s="35"/>
       <c r="D202" s="22">
@@ -12681,7 +12687,7 @@
       <c r="K202" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L202" s="40" t="s">
+      <c r="L202" s="36" t="s">
         <v>427</v>
       </c>
       <c r="M202" s="27"/>
@@ -12690,7 +12696,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" ht="14.5">
-      <c r="A203" s="36"/>
+      <c r="A203" s="44"/>
       <c r="B203" s="35"/>
       <c r="C203" s="35"/>
       <c r="D203" s="22">
@@ -12717,14 +12723,14 @@
       <c r="K203" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L203" s="40"/>
+      <c r="L203" s="36"/>
       <c r="M203" s="27"/>
       <c r="N203" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="14.5">
-      <c r="A204" s="36"/>
+      <c r="A204" s="44"/>
       <c r="B204" s="35"/>
       <c r="C204" s="35"/>
       <c r="D204" s="22">
@@ -12751,14 +12757,14 @@
       <c r="K204" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L204" s="40"/>
+      <c r="L204" s="36"/>
       <c r="M204" s="27"/>
       <c r="N204" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="14.5">
-      <c r="A205" s="36"/>
+      <c r="A205" s="44"/>
       <c r="B205" s="35"/>
       <c r="C205" s="35"/>
       <c r="D205" s="22">
@@ -12785,7 +12791,7 @@
       <c r="K205" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L205" s="40" t="s">
+      <c r="L205" s="36" t="s">
         <v>428</v>
       </c>
       <c r="M205" s="27"/>
@@ -12794,7 +12800,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" ht="14.5">
-      <c r="A206" s="36"/>
+      <c r="A206" s="44"/>
       <c r="B206" s="35"/>
       <c r="C206" s="35"/>
       <c r="D206" s="22">
@@ -12821,14 +12827,14 @@
       <c r="K206" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L206" s="40"/>
+      <c r="L206" s="36"/>
       <c r="M206" s="27"/>
       <c r="N206" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="14.5">
-      <c r="A207" s="36"/>
+      <c r="A207" s="44"/>
       <c r="B207" s="35"/>
       <c r="C207" s="35"/>
       <c r="D207" s="22">
@@ -12855,14 +12861,14 @@
       <c r="K207" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L207" s="40"/>
+      <c r="L207" s="36"/>
       <c r="M207" s="27"/>
       <c r="N207" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="14.5">
-      <c r="A208" s="36"/>
+      <c r="A208" s="44"/>
       <c r="B208" s="35"/>
       <c r="C208" s="35"/>
       <c r="D208" s="22">
@@ -12889,7 +12895,7 @@
       <c r="K208" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L208" s="40" t="s">
+      <c r="L208" s="36" t="s">
         <v>429</v>
       </c>
       <c r="M208" s="27"/>
@@ -12898,7 +12904,7 @@
       </c>
     </row>
     <row r="209" spans="1:18" ht="14.5">
-      <c r="A209" s="36"/>
+      <c r="A209" s="44"/>
       <c r="B209" s="35"/>
       <c r="C209" s="35"/>
       <c r="D209" s="22">
@@ -12925,14 +12931,14 @@
       <c r="K209" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L209" s="40"/>
+      <c r="L209" s="36"/>
       <c r="M209" s="27"/>
       <c r="N209" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:18" ht="14.5">
-      <c r="A210" s="36"/>
+      <c r="A210" s="44"/>
       <c r="B210" s="35"/>
       <c r="C210" s="35"/>
       <c r="D210" s="22">
@@ -12959,14 +12965,14 @@
       <c r="K210" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L210" s="40"/>
+      <c r="L210" s="36"/>
       <c r="M210" s="27"/>
       <c r="N210" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:18" ht="14.5">
-      <c r="A211" s="36"/>
+      <c r="A211" s="44"/>
       <c r="B211" s="35"/>
       <c r="C211" s="35"/>
       <c r="D211" s="22">
@@ -12993,7 +12999,7 @@
       <c r="K211" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L211" s="40" t="s">
+      <c r="L211" s="36" t="s">
         <v>430</v>
       </c>
       <c r="M211" s="27"/>
@@ -13002,7 +13008,7 @@
       </c>
     </row>
     <row r="212" spans="1:18" ht="14.5">
-      <c r="A212" s="36"/>
+      <c r="A212" s="44"/>
       <c r="B212" s="35"/>
       <c r="C212" s="35"/>
       <c r="D212" s="22">
@@ -13029,14 +13035,14 @@
       <c r="K212" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L212" s="40"/>
+      <c r="L212" s="36"/>
       <c r="M212" s="27"/>
       <c r="N212" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:18" ht="14.5">
-      <c r="A213" s="36"/>
+      <c r="A213" s="44"/>
       <c r="B213" s="35"/>
       <c r="C213" s="35"/>
       <c r="D213" s="22">
@@ -13063,14 +13069,14 @@
       <c r="K213" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L213" s="40"/>
+      <c r="L213" s="36"/>
       <c r="M213" s="27"/>
       <c r="N213" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:18" ht="14.5">
-      <c r="A214" s="36"/>
+      <c r="A214" s="44"/>
       <c r="B214" s="35"/>
       <c r="C214" s="35"/>
       <c r="D214" s="22">
@@ -13097,7 +13103,7 @@
       <c r="K214" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L214" s="40" t="s">
+      <c r="L214" s="36" t="s">
         <v>431</v>
       </c>
       <c r="M214" s="27"/>
@@ -13106,7 +13112,7 @@
       </c>
     </row>
     <row r="215" spans="1:18" ht="14.5">
-      <c r="A215" s="36"/>
+      <c r="A215" s="44"/>
       <c r="B215" s="35"/>
       <c r="C215" s="35"/>
       <c r="D215" s="22">
@@ -13133,14 +13139,14 @@
       <c r="K215" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L215" s="40"/>
+      <c r="L215" s="36"/>
       <c r="M215" s="27"/>
       <c r="N215" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="14.5">
-      <c r="A216" s="36"/>
+      <c r="A216" s="44"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
       <c r="D216" s="22">
@@ -13167,14 +13173,14 @@
       <c r="K216" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L216" s="40"/>
+      <c r="L216" s="36"/>
       <c r="M216" s="27"/>
       <c r="N216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="217" spans="1:18" ht="14.5">
-      <c r="A217" s="36"/>
+      <c r="A217" s="44"/>
       <c r="B217" s="35"/>
       <c r="C217" s="35"/>
       <c r="D217" s="22">
@@ -13201,7 +13207,7 @@
       <c r="K217" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L217" s="40" t="s">
+      <c r="L217" s="36" t="s">
         <v>432</v>
       </c>
       <c r="M217" s="27"/>
@@ -13210,7 +13216,7 @@
       </c>
     </row>
     <row r="218" spans="1:18" ht="14.5">
-      <c r="A218" s="36"/>
+      <c r="A218" s="44"/>
       <c r="B218" s="35"/>
       <c r="C218" s="35"/>
       <c r="D218" s="22">
@@ -13237,14 +13243,14 @@
       <c r="K218" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L218" s="40"/>
+      <c r="L218" s="36"/>
       <c r="M218" s="27"/>
       <c r="N218" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:18" ht="14.5">
-      <c r="A219" s="36"/>
+      <c r="A219" s="44"/>
       <c r="B219" s="35"/>
       <c r="C219" s="35"/>
       <c r="D219" s="22">
@@ -13271,14 +13277,14 @@
       <c r="K219" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L219" s="40"/>
+      <c r="L219" s="36"/>
       <c r="M219" s="27"/>
       <c r="N219" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="220" spans="1:18" ht="14.5">
-      <c r="A220" s="36"/>
+      <c r="A220" s="44"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35">
         <v>15</v>
@@ -13327,7 +13333,7 @@
       </c>
     </row>
     <row r="221" spans="1:18" ht="14.5">
-      <c r="A221" s="36"/>
+      <c r="A221" s="44"/>
       <c r="B221" s="35"/>
       <c r="C221" s="35"/>
       <c r="D221" s="22">
@@ -13374,7 +13380,7 @@
       </c>
     </row>
     <row r="222" spans="1:18" ht="14.5">
-      <c r="A222" s="36"/>
+      <c r="A222" s="44"/>
       <c r="B222" s="35"/>
       <c r="C222" s="35"/>
       <c r="D222" s="22">
@@ -13421,7 +13427,7 @@
       </c>
     </row>
     <row r="223" spans="1:18" ht="14.5">
-      <c r="A223" s="36"/>
+      <c r="A223" s="44"/>
       <c r="B223" s="35"/>
       <c r="C223" s="35"/>
       <c r="D223" s="22">
@@ -13468,7 +13474,7 @@
       </c>
     </row>
     <row r="224" spans="1:18" ht="14.5">
-      <c r="A224" s="36"/>
+      <c r="A224" s="44"/>
       <c r="B224" s="35"/>
       <c r="C224" s="35"/>
       <c r="D224" s="22">
@@ -13515,7 +13521,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="14.5">
-      <c r="A225" s="36"/>
+      <c r="A225" s="44"/>
       <c r="B225" s="35"/>
       <c r="C225" s="35">
         <v>16</v>
@@ -13553,7 +13559,7 @@
       </c>
     </row>
     <row r="226" spans="1:14" ht="14.5">
-      <c r="A226" s="36"/>
+      <c r="A226" s="44"/>
       <c r="B226" s="35"/>
       <c r="C226" s="35"/>
       <c r="D226" s="22">
@@ -13580,14 +13586,14 @@
       <c r="K226" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L226" s="38"/>
+      <c r="L226" s="42"/>
       <c r="M226" s="26"/>
       <c r="N226" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="14.5">
-      <c r="A227" s="36"/>
+      <c r="A227" s="44"/>
       <c r="B227" s="35"/>
       <c r="C227" s="35"/>
       <c r="D227" s="22">
@@ -13614,14 +13620,14 @@
       <c r="K227" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="L227" s="38"/>
+      <c r="L227" s="42"/>
       <c r="M227" s="26"/>
       <c r="N227" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="14.5">
-      <c r="A228" s="36"/>
+      <c r="A228" s="44"/>
       <c r="B228" s="35"/>
       <c r="C228" s="35"/>
       <c r="D228" s="22">
@@ -13648,14 +13654,14 @@
       <c r="K228" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="L228" s="38"/>
+      <c r="L228" s="42"/>
       <c r="M228" s="26"/>
       <c r="N228" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="14.5">
-      <c r="A229" s="36"/>
+      <c r="A229" s="44"/>
       <c r="B229" s="35"/>
       <c r="C229" s="35"/>
       <c r="D229" s="22">
@@ -13682,14 +13688,14 @@
       <c r="K229" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="L229" s="38"/>
+      <c r="L229" s="42"/>
       <c r="M229" s="26"/>
       <c r="N229" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="14.5">
-      <c r="A230" s="36"/>
+      <c r="A230" s="44"/>
       <c r="B230" s="35"/>
       <c r="C230" s="35"/>
       <c r="D230" s="22">
@@ -13716,14 +13722,14 @@
       <c r="K230" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="L230" s="38"/>
+      <c r="L230" s="42"/>
       <c r="M230" s="26"/>
       <c r="N230" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="14.5">
-      <c r="A231" s="36"/>
+      <c r="A231" s="44"/>
       <c r="B231" s="35"/>
       <c r="C231" s="35"/>
       <c r="D231" s="22">
@@ -13750,14 +13756,14 @@
       <c r="K231" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="L231" s="38"/>
+      <c r="L231" s="42"/>
       <c r="M231" s="26"/>
       <c r="N231" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="14.5">
-      <c r="A232" s="36"/>
+      <c r="A232" s="44"/>
       <c r="B232" s="35"/>
       <c r="C232" s="35"/>
       <c r="D232" s="22">
@@ -13784,14 +13790,14 @@
       <c r="K232" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="L232" s="38"/>
+      <c r="L232" s="42"/>
       <c r="M232" s="26"/>
       <c r="N232" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="14.5">
-      <c r="A233" s="36"/>
+      <c r="A233" s="44"/>
       <c r="B233" s="35"/>
       <c r="C233" s="35"/>
       <c r="D233" s="22">
@@ -13818,14 +13824,14 @@
       <c r="K233" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="L233" s="39"/>
+      <c r="L233" s="43"/>
       <c r="M233" s="26"/>
       <c r="N233" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="14.5">
-      <c r="A234" s="36"/>
+      <c r="A234" s="44"/>
       <c r="B234" s="35"/>
       <c r="C234" s="35"/>
       <c r="D234" s="22">
@@ -13852,7 +13858,7 @@
       <c r="K234" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L234" s="40" t="s">
+      <c r="L234" s="36" t="s">
         <v>425</v>
       </c>
       <c r="M234" s="27"/>
@@ -13861,7 +13867,7 @@
       </c>
     </row>
     <row r="235" spans="1:14" ht="14.5">
-      <c r="A235" s="36"/>
+      <c r="A235" s="44"/>
       <c r="B235" s="35"/>
       <c r="C235" s="35"/>
       <c r="D235" s="22">
@@ -13888,14 +13894,14 @@
       <c r="K235" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L235" s="40"/>
+      <c r="L235" s="36"/>
       <c r="M235" s="27"/>
       <c r="N235" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="14.5">
-      <c r="A236" s="36"/>
+      <c r="A236" s="44"/>
       <c r="B236" s="35"/>
       <c r="C236" s="35"/>
       <c r="D236" s="22">
@@ -13922,14 +13928,14 @@
       <c r="K236" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L236" s="40"/>
+      <c r="L236" s="36"/>
       <c r="M236" s="27"/>
       <c r="N236" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="14.5">
-      <c r="A237" s="36"/>
+      <c r="A237" s="44"/>
       <c r="B237" s="35"/>
       <c r="C237" s="35"/>
       <c r="D237" s="22">
@@ -13956,7 +13962,7 @@
       <c r="K237" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L237" s="40" t="s">
+      <c r="L237" s="36" t="s">
         <v>426</v>
       </c>
       <c r="M237" s="27"/>
@@ -13965,7 +13971,7 @@
       </c>
     </row>
     <row r="238" spans="1:14" ht="14.5">
-      <c r="A238" s="36"/>
+      <c r="A238" s="44"/>
       <c r="B238" s="35"/>
       <c r="C238" s="35"/>
       <c r="D238" s="22">
@@ -13992,14 +13998,14 @@
       <c r="K238" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L238" s="40"/>
+      <c r="L238" s="36"/>
       <c r="M238" s="27"/>
       <c r="N238" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="14.5">
-      <c r="A239" s="36"/>
+      <c r="A239" s="44"/>
       <c r="B239" s="35"/>
       <c r="C239" s="35"/>
       <c r="D239" s="22">
@@ -14026,14 +14032,14 @@
       <c r="K239" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L239" s="40"/>
+      <c r="L239" s="36"/>
       <c r="M239" s="27"/>
       <c r="N239" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="14.5">
-      <c r="A240" s="36"/>
+      <c r="A240" s="44"/>
       <c r="B240" s="35"/>
       <c r="C240" s="35"/>
       <c r="D240" s="22">
@@ -14060,7 +14066,7 @@
       <c r="K240" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L240" s="40" t="s">
+      <c r="L240" s="36" t="s">
         <v>427</v>
       </c>
       <c r="M240" s="27"/>
@@ -14069,7 +14075,7 @@
       </c>
     </row>
     <row r="241" spans="1:14" ht="14.5">
-      <c r="A241" s="36"/>
+      <c r="A241" s="44"/>
       <c r="B241" s="35"/>
       <c r="C241" s="35"/>
       <c r="D241" s="22">
@@ -14096,14 +14102,14 @@
       <c r="K241" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L241" s="40"/>
+      <c r="L241" s="36"/>
       <c r="M241" s="27"/>
       <c r="N241" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="14.5">
-      <c r="A242" s="36"/>
+      <c r="A242" s="44"/>
       <c r="B242" s="35"/>
       <c r="C242" s="35"/>
       <c r="D242" s="22">
@@ -14130,14 +14136,14 @@
       <c r="K242" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L242" s="40"/>
+      <c r="L242" s="36"/>
       <c r="M242" s="27"/>
       <c r="N242" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="14.5">
-      <c r="A243" s="36"/>
+      <c r="A243" s="44"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
       <c r="D243" s="22">
@@ -14164,7 +14170,7 @@
       <c r="K243" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L243" s="40" t="s">
+      <c r="L243" s="36" t="s">
         <v>428</v>
       </c>
       <c r="M243" s="27"/>
@@ -14173,7 +14179,7 @@
       </c>
     </row>
     <row r="244" spans="1:14" ht="14.5">
-      <c r="A244" s="36"/>
+      <c r="A244" s="44"/>
       <c r="B244" s="35"/>
       <c r="C244" s="35"/>
       <c r="D244" s="22">
@@ -14200,14 +14206,14 @@
       <c r="K244" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L244" s="40"/>
+      <c r="L244" s="36"/>
       <c r="M244" s="27"/>
       <c r="N244" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="14.5">
-      <c r="A245" s="36"/>
+      <c r="A245" s="44"/>
       <c r="B245" s="35"/>
       <c r="C245" s="35"/>
       <c r="D245" s="22">
@@ -14234,14 +14240,14 @@
       <c r="K245" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L245" s="40"/>
+      <c r="L245" s="36"/>
       <c r="M245" s="27"/>
       <c r="N245" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="14.5">
-      <c r="A246" s="36"/>
+      <c r="A246" s="44"/>
       <c r="B246" s="35"/>
       <c r="C246" s="35"/>
       <c r="D246" s="22">
@@ -14268,7 +14274,7 @@
       <c r="K246" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L246" s="40" t="s">
+      <c r="L246" s="36" t="s">
         <v>429</v>
       </c>
       <c r="M246" s="27"/>
@@ -14277,7 +14283,7 @@
       </c>
     </row>
     <row r="247" spans="1:14" ht="14.5">
-      <c r="A247" s="36"/>
+      <c r="A247" s="44"/>
       <c r="B247" s="35"/>
       <c r="C247" s="35"/>
       <c r="D247" s="22">
@@ -14304,14 +14310,14 @@
       <c r="K247" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L247" s="40"/>
+      <c r="L247" s="36"/>
       <c r="M247" s="27"/>
       <c r="N247" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="14.5">
-      <c r="A248" s="36"/>
+      <c r="A248" s="44"/>
       <c r="B248" s="35"/>
       <c r="C248" s="35"/>
       <c r="D248" s="22">
@@ -14338,14 +14344,14 @@
       <c r="K248" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L248" s="40"/>
+      <c r="L248" s="36"/>
       <c r="M248" s="27"/>
       <c r="N248" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="14.5">
-      <c r="A249" s="36"/>
+      <c r="A249" s="44"/>
       <c r="B249" s="35"/>
       <c r="C249" s="35"/>
       <c r="D249" s="22">
@@ -14372,7 +14378,7 @@
       <c r="K249" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L249" s="40" t="s">
+      <c r="L249" s="36" t="s">
         <v>430</v>
       </c>
       <c r="M249" s="27"/>
@@ -14381,7 +14387,7 @@
       </c>
     </row>
     <row r="250" spans="1:14" ht="14.5">
-      <c r="A250" s="36"/>
+      <c r="A250" s="44"/>
       <c r="B250" s="35"/>
       <c r="C250" s="35"/>
       <c r="D250" s="22">
@@ -14408,14 +14414,14 @@
       <c r="K250" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L250" s="40"/>
+      <c r="L250" s="36"/>
       <c r="M250" s="27"/>
       <c r="N250" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="14.5">
-      <c r="A251" s="36"/>
+      <c r="A251" s="44"/>
       <c r="B251" s="35"/>
       <c r="C251" s="35"/>
       <c r="D251" s="22">
@@ -14442,14 +14448,14 @@
       <c r="K251" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L251" s="40"/>
+      <c r="L251" s="36"/>
       <c r="M251" s="27"/>
       <c r="N251" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="252" spans="1:14" ht="14.5">
-      <c r="A252" s="36"/>
+      <c r="A252" s="44"/>
       <c r="B252" s="35"/>
       <c r="C252" s="35"/>
       <c r="D252" s="22">
@@ -14476,7 +14482,7 @@
       <c r="K252" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L252" s="40" t="s">
+      <c r="L252" s="36" t="s">
         <v>431</v>
       </c>
       <c r="M252" s="27"/>
@@ -14485,7 +14491,7 @@
       </c>
     </row>
     <row r="253" spans="1:14" ht="14.5">
-      <c r="A253" s="36"/>
+      <c r="A253" s="44"/>
       <c r="B253" s="35"/>
       <c r="C253" s="35"/>
       <c r="D253" s="22">
@@ -14512,14 +14518,14 @@
       <c r="K253" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L253" s="40"/>
+      <c r="L253" s="36"/>
       <c r="M253" s="27"/>
       <c r="N253" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="14.5">
-      <c r="A254" s="36"/>
+      <c r="A254" s="44"/>
       <c r="B254" s="35"/>
       <c r="C254" s="35"/>
       <c r="D254" s="22">
@@ -14546,14 +14552,14 @@
       <c r="K254" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L254" s="40"/>
+      <c r="L254" s="36"/>
       <c r="M254" s="27"/>
       <c r="N254" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="14.5">
-      <c r="A255" s="36"/>
+      <c r="A255" s="44"/>
       <c r="B255" s="35"/>
       <c r="C255" s="35"/>
       <c r="D255" s="22">
@@ -14580,7 +14586,7 @@
       <c r="K255" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L255" s="40" t="s">
+      <c r="L255" s="36" t="s">
         <v>432</v>
       </c>
       <c r="M255" s="27"/>
@@ -14589,7 +14595,7 @@
       </c>
     </row>
     <row r="256" spans="1:14" ht="14.5">
-      <c r="A256" s="36"/>
+      <c r="A256" s="44"/>
       <c r="B256" s="35"/>
       <c r="C256" s="35"/>
       <c r="D256" s="22">
@@ -14616,14 +14622,14 @@
       <c r="K256" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L256" s="40"/>
+      <c r="L256" s="36"/>
       <c r="M256" s="27"/>
       <c r="N256" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="257" spans="1:18" ht="14.5">
-      <c r="A257" s="36"/>
+      <c r="A257" s="44"/>
       <c r="B257" s="35"/>
       <c r="C257" s="35"/>
       <c r="D257" s="22">
@@ -14650,14 +14656,14 @@
       <c r="K257" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L257" s="40"/>
+      <c r="L257" s="36"/>
       <c r="M257" s="27"/>
       <c r="N257" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="258" spans="1:18" ht="14.5">
-      <c r="A258" s="36"/>
+      <c r="A258" s="44"/>
       <c r="B258" s="35"/>
       <c r="C258" s="35">
         <v>17</v>
@@ -14706,7 +14712,7 @@
       </c>
     </row>
     <row r="259" spans="1:18" ht="14.5">
-      <c r="A259" s="36"/>
+      <c r="A259" s="44"/>
       <c r="B259" s="35"/>
       <c r="C259" s="35"/>
       <c r="D259" s="22">
@@ -14753,7 +14759,7 @@
       </c>
     </row>
     <row r="260" spans="1:18" ht="14.5">
-      <c r="A260" s="36"/>
+      <c r="A260" s="44"/>
       <c r="B260" s="35"/>
       <c r="C260" s="35"/>
       <c r="D260" s="22">
@@ -14800,7 +14806,7 @@
       </c>
     </row>
     <row r="261" spans="1:18" ht="14.5">
-      <c r="A261" s="36"/>
+      <c r="A261" s="44"/>
       <c r="B261" s="35"/>
       <c r="C261" s="35"/>
       <c r="D261" s="22">
@@ -14847,7 +14853,7 @@
       </c>
     </row>
     <row r="262" spans="1:18" ht="14.5">
-      <c r="A262" s="36"/>
+      <c r="A262" s="44"/>
       <c r="B262" s="35"/>
       <c r="C262" s="35"/>
       <c r="D262" s="22">
@@ -14894,7 +14900,7 @@
       </c>
     </row>
     <row r="263" spans="1:18" ht="14.5">
-      <c r="A263" s="36"/>
+      <c r="A263" s="44"/>
       <c r="B263" s="35"/>
       <c r="C263" s="35">
         <v>18</v>
@@ -14932,7 +14938,7 @@
       </c>
     </row>
     <row r="264" spans="1:18" ht="14.5">
-      <c r="A264" s="36"/>
+      <c r="A264" s="44"/>
       <c r="B264" s="35"/>
       <c r="C264" s="35"/>
       <c r="D264" s="22">
@@ -14959,14 +14965,14 @@
       <c r="K264" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L264" s="38"/>
+      <c r="L264" s="42"/>
       <c r="M264" s="26"/>
       <c r="N264" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="14.5">
-      <c r="A265" s="36"/>
+      <c r="A265" s="44"/>
       <c r="B265" s="35"/>
       <c r="C265" s="35"/>
       <c r="D265" s="22">
@@ -14993,14 +14999,14 @@
       <c r="K265" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="L265" s="38"/>
+      <c r="L265" s="42"/>
       <c r="M265" s="26"/>
       <c r="N265" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="14.5">
-      <c r="A266" s="36"/>
+      <c r="A266" s="44"/>
       <c r="B266" s="35"/>
       <c r="C266" s="35"/>
       <c r="D266" s="22">
@@ -15027,14 +15033,14 @@
       <c r="K266" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="L266" s="38"/>
+      <c r="L266" s="42"/>
       <c r="M266" s="26"/>
       <c r="N266" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="14.5">
-      <c r="A267" s="36"/>
+      <c r="A267" s="44"/>
       <c r="B267" s="35"/>
       <c r="C267" s="35"/>
       <c r="D267" s="22">
@@ -15061,14 +15067,14 @@
       <c r="K267" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="L267" s="38"/>
+      <c r="L267" s="42"/>
       <c r="M267" s="26"/>
       <c r="N267" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="14.5">
-      <c r="A268" s="36"/>
+      <c r="A268" s="44"/>
       <c r="B268" s="35"/>
       <c r="C268" s="35"/>
       <c r="D268" s="22">
@@ -15095,14 +15101,14 @@
       <c r="K268" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="L268" s="38"/>
+      <c r="L268" s="42"/>
       <c r="M268" s="26"/>
       <c r="N268" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="14.5">
-      <c r="A269" s="36"/>
+      <c r="A269" s="44"/>
       <c r="B269" s="35"/>
       <c r="C269" s="35"/>
       <c r="D269" s="22">
@@ -15129,14 +15135,14 @@
       <c r="K269" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="L269" s="38"/>
+      <c r="L269" s="42"/>
       <c r="M269" s="26"/>
       <c r="N269" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="14.5">
-      <c r="A270" s="36"/>
+      <c r="A270" s="44"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
       <c r="D270" s="22">
@@ -15163,14 +15169,14 @@
       <c r="K270" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="L270" s="38"/>
+      <c r="L270" s="42"/>
       <c r="M270" s="26"/>
       <c r="N270" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="14.5">
-      <c r="A271" s="36"/>
+      <c r="A271" s="44"/>
       <c r="B271" s="35"/>
       <c r="C271" s="35"/>
       <c r="D271" s="22">
@@ -15197,14 +15203,14 @@
       <c r="K271" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="L271" s="39"/>
+      <c r="L271" s="43"/>
       <c r="M271" s="26"/>
       <c r="N271" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="14.5">
-      <c r="A272" s="36"/>
+      <c r="A272" s="44"/>
       <c r="B272" s="35"/>
       <c r="C272" s="35"/>
       <c r="D272" s="22">
@@ -15231,7 +15237,7 @@
       <c r="K272" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L272" s="40" t="s">
+      <c r="L272" s="36" t="s">
         <v>425</v>
       </c>
       <c r="M272" s="27"/>
@@ -15240,7 +15246,7 @@
       </c>
     </row>
     <row r="273" spans="1:14" ht="14.5">
-      <c r="A273" s="36"/>
+      <c r="A273" s="44"/>
       <c r="B273" s="35"/>
       <c r="C273" s="35"/>
       <c r="D273" s="22">
@@ -15267,14 +15273,14 @@
       <c r="K273" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L273" s="40"/>
+      <c r="L273" s="36"/>
       <c r="M273" s="27"/>
       <c r="N273" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="14.5">
-      <c r="A274" s="36"/>
+      <c r="A274" s="44"/>
       <c r="B274" s="35"/>
       <c r="C274" s="35"/>
       <c r="D274" s="22">
@@ -15301,14 +15307,14 @@
       <c r="K274" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L274" s="40"/>
+      <c r="L274" s="36"/>
       <c r="M274" s="27"/>
       <c r="N274" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="14.5">
-      <c r="A275" s="36"/>
+      <c r="A275" s="44"/>
       <c r="B275" s="35"/>
       <c r="C275" s="35"/>
       <c r="D275" s="22">
@@ -15335,7 +15341,7 @@
       <c r="K275" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L275" s="40" t="s">
+      <c r="L275" s="36" t="s">
         <v>426</v>
       </c>
       <c r="M275" s="27"/>
@@ -15344,7 +15350,7 @@
       </c>
     </row>
     <row r="276" spans="1:14" ht="14.5">
-      <c r="A276" s="36"/>
+      <c r="A276" s="44"/>
       <c r="B276" s="35"/>
       <c r="C276" s="35"/>
       <c r="D276" s="22">
@@ -15371,14 +15377,14 @@
       <c r="K276" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L276" s="40"/>
+      <c r="L276" s="36"/>
       <c r="M276" s="27"/>
       <c r="N276" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="14.5">
-      <c r="A277" s="36"/>
+      <c r="A277" s="44"/>
       <c r="B277" s="35"/>
       <c r="C277" s="35"/>
       <c r="D277" s="22">
@@ -15405,14 +15411,14 @@
       <c r="K277" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L277" s="40"/>
+      <c r="L277" s="36"/>
       <c r="M277" s="27"/>
       <c r="N277" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="14.5">
-      <c r="A278" s="36"/>
+      <c r="A278" s="44"/>
       <c r="B278" s="35"/>
       <c r="C278" s="35"/>
       <c r="D278" s="22">
@@ -15439,7 +15445,7 @@
       <c r="K278" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L278" s="40" t="s">
+      <c r="L278" s="36" t="s">
         <v>427</v>
       </c>
       <c r="M278" s="27"/>
@@ -15448,7 +15454,7 @@
       </c>
     </row>
     <row r="279" spans="1:14" ht="14.5">
-      <c r="A279" s="36"/>
+      <c r="A279" s="44"/>
       <c r="B279" s="35"/>
       <c r="C279" s="35"/>
       <c r="D279" s="22">
@@ -15475,14 +15481,14 @@
       <c r="K279" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L279" s="40"/>
+      <c r="L279" s="36"/>
       <c r="M279" s="27"/>
       <c r="N279" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:14" ht="14.5">
-      <c r="A280" s="36"/>
+      <c r="A280" s="44"/>
       <c r="B280" s="35"/>
       <c r="C280" s="35"/>
       <c r="D280" s="22">
@@ -15509,14 +15515,14 @@
       <c r="K280" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L280" s="40"/>
+      <c r="L280" s="36"/>
       <c r="M280" s="27"/>
       <c r="N280" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="14.5">
-      <c r="A281" s="36"/>
+      <c r="A281" s="44"/>
       <c r="B281" s="35"/>
       <c r="C281" s="35"/>
       <c r="D281" s="22">
@@ -15543,7 +15549,7 @@
       <c r="K281" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L281" s="40" t="s">
+      <c r="L281" s="36" t="s">
         <v>428</v>
       </c>
       <c r="M281" s="27"/>
@@ -15552,7 +15558,7 @@
       </c>
     </row>
     <row r="282" spans="1:14" ht="14.5">
-      <c r="A282" s="36"/>
+      <c r="A282" s="44"/>
       <c r="B282" s="35"/>
       <c r="C282" s="35"/>
       <c r="D282" s="22">
@@ -15579,14 +15585,14 @@
       <c r="K282" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L282" s="40"/>
+      <c r="L282" s="36"/>
       <c r="M282" s="27"/>
       <c r="N282" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="14.5">
-      <c r="A283" s="36"/>
+      <c r="A283" s="44"/>
       <c r="B283" s="35"/>
       <c r="C283" s="35"/>
       <c r="D283" s="22">
@@ -15613,14 +15619,14 @@
       <c r="K283" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L283" s="40"/>
+      <c r="L283" s="36"/>
       <c r="M283" s="27"/>
       <c r="N283" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:14" ht="14.5">
-      <c r="A284" s="36"/>
+      <c r="A284" s="44"/>
       <c r="B284" s="35"/>
       <c r="C284" s="35"/>
       <c r="D284" s="22">
@@ -15647,7 +15653,7 @@
       <c r="K284" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L284" s="40" t="s">
+      <c r="L284" s="36" t="s">
         <v>429</v>
       </c>
       <c r="M284" s="27"/>
@@ -15656,7 +15662,7 @@
       </c>
     </row>
     <row r="285" spans="1:14" ht="14.5">
-      <c r="A285" s="36"/>
+      <c r="A285" s="44"/>
       <c r="B285" s="35"/>
       <c r="C285" s="35"/>
       <c r="D285" s="22">
@@ -15683,14 +15689,14 @@
       <c r="K285" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L285" s="40"/>
+      <c r="L285" s="36"/>
       <c r="M285" s="27"/>
       <c r="N285" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="14.5">
-      <c r="A286" s="36"/>
+      <c r="A286" s="44"/>
       <c r="B286" s="35"/>
       <c r="C286" s="35"/>
       <c r="D286" s="22">
@@ -15717,14 +15723,14 @@
       <c r="K286" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L286" s="40"/>
+      <c r="L286" s="36"/>
       <c r="M286" s="27"/>
       <c r="N286" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="14.5">
-      <c r="A287" s="36"/>
+      <c r="A287" s="44"/>
       <c r="B287" s="35"/>
       <c r="C287" s="35"/>
       <c r="D287" s="22">
@@ -15751,7 +15757,7 @@
       <c r="K287" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L287" s="40" t="s">
+      <c r="L287" s="36" t="s">
         <v>430</v>
       </c>
       <c r="M287" s="27"/>
@@ -15760,7 +15766,7 @@
       </c>
     </row>
     <row r="288" spans="1:14" ht="14.5">
-      <c r="A288" s="36"/>
+      <c r="A288" s="44"/>
       <c r="B288" s="35"/>
       <c r="C288" s="35"/>
       <c r="D288" s="22">
@@ -15787,14 +15793,14 @@
       <c r="K288" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L288" s="40"/>
+      <c r="L288" s="36"/>
       <c r="M288" s="27"/>
       <c r="N288" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:18" ht="14.5">
-      <c r="A289" s="36"/>
+      <c r="A289" s="44"/>
       <c r="B289" s="35"/>
       <c r="C289" s="35"/>
       <c r="D289" s="22">
@@ -15821,14 +15827,14 @@
       <c r="K289" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L289" s="40"/>
+      <c r="L289" s="36"/>
       <c r="M289" s="27"/>
       <c r="N289" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:18" ht="14.5">
-      <c r="A290" s="36"/>
+      <c r="A290" s="44"/>
       <c r="B290" s="35"/>
       <c r="C290" s="35"/>
       <c r="D290" s="22">
@@ -15855,7 +15861,7 @@
       <c r="K290" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L290" s="40" t="s">
+      <c r="L290" s="36" t="s">
         <v>431</v>
       </c>
       <c r="M290" s="27"/>
@@ -15864,7 +15870,7 @@
       </c>
     </row>
     <row r="291" spans="1:18" ht="14.5">
-      <c r="A291" s="36"/>
+      <c r="A291" s="44"/>
       <c r="B291" s="35"/>
       <c r="C291" s="35"/>
       <c r="D291" s="22">
@@ -15891,14 +15897,14 @@
       <c r="K291" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L291" s="40"/>
+      <c r="L291" s="36"/>
       <c r="M291" s="27"/>
       <c r="N291" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="292" spans="1:18" ht="14.5">
-      <c r="A292" s="36"/>
+      <c r="A292" s="44"/>
       <c r="B292" s="35"/>
       <c r="C292" s="35"/>
       <c r="D292" s="22">
@@ -15925,14 +15931,14 @@
       <c r="K292" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L292" s="40"/>
+      <c r="L292" s="36"/>
       <c r="M292" s="27"/>
       <c r="N292" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="293" spans="1:18" ht="14.5">
-      <c r="A293" s="36"/>
+      <c r="A293" s="44"/>
       <c r="B293" s="35"/>
       <c r="C293" s="35"/>
       <c r="D293" s="22">
@@ -15959,7 +15965,7 @@
       <c r="K293" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L293" s="40" t="s">
+      <c r="L293" s="36" t="s">
         <v>432</v>
       </c>
       <c r="M293" s="27"/>
@@ -15968,7 +15974,7 @@
       </c>
     </row>
     <row r="294" spans="1:18" ht="14.5">
-      <c r="A294" s="36"/>
+      <c r="A294" s="44"/>
       <c r="B294" s="35"/>
       <c r="C294" s="35"/>
       <c r="D294" s="22">
@@ -15995,14 +16001,14 @@
       <c r="K294" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L294" s="40"/>
+      <c r="L294" s="36"/>
       <c r="M294" s="27"/>
       <c r="N294" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="295" spans="1:18" ht="14.5">
-      <c r="A295" s="36"/>
+      <c r="A295" s="44"/>
       <c r="B295" s="35"/>
       <c r="C295" s="35"/>
       <c r="D295" s="22">
@@ -16029,14 +16035,14 @@
       <c r="K295" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L295" s="40"/>
+      <c r="L295" s="36"/>
       <c r="M295" s="27"/>
       <c r="N295" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="296" spans="1:18" ht="14.5">
-      <c r="A296" s="36"/>
+      <c r="A296" s="44"/>
       <c r="B296" s="35"/>
       <c r="C296" s="35">
         <v>19</v>
@@ -16085,7 +16091,7 @@
       </c>
     </row>
     <row r="297" spans="1:18" ht="14.5">
-      <c r="A297" s="36"/>
+      <c r="A297" s="44"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
       <c r="D297" s="22">
@@ -16132,7 +16138,7 @@
       </c>
     </row>
     <row r="298" spans="1:18" ht="14.5">
-      <c r="A298" s="36"/>
+      <c r="A298" s="44"/>
       <c r="B298" s="35"/>
       <c r="C298" s="35"/>
       <c r="D298" s="22">
@@ -16179,7 +16185,7 @@
       </c>
     </row>
     <row r="299" spans="1:18" ht="14.5">
-      <c r="A299" s="36"/>
+      <c r="A299" s="44"/>
       <c r="B299" s="35"/>
       <c r="C299" s="35"/>
       <c r="D299" s="22">
@@ -16226,7 +16232,7 @@
       </c>
     </row>
     <row r="300" spans="1:18" ht="14.5">
-      <c r="A300" s="36"/>
+      <c r="A300" s="44"/>
       <c r="B300" s="35"/>
       <c r="C300" s="35"/>
       <c r="D300" s="22">
@@ -16273,7 +16279,7 @@
       </c>
     </row>
     <row r="301" spans="1:18" ht="14.5">
-      <c r="A301" s="36"/>
+      <c r="A301" s="44"/>
       <c r="B301" s="35"/>
       <c r="C301" s="35">
         <v>20</v>
@@ -16311,7 +16317,7 @@
       </c>
     </row>
     <row r="302" spans="1:18" ht="14.5">
-      <c r="A302" s="36"/>
+      <c r="A302" s="44"/>
       <c r="B302" s="35"/>
       <c r="C302" s="35"/>
       <c r="D302" s="22">
@@ -16338,14 +16344,14 @@
       <c r="K302" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L302" s="38"/>
+      <c r="L302" s="42"/>
       <c r="M302" s="26"/>
       <c r="N302" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="303" spans="1:18" ht="14.5">
-      <c r="A303" s="36"/>
+      <c r="A303" s="44"/>
       <c r="B303" s="35"/>
       <c r="C303" s="35"/>
       <c r="D303" s="22">
@@ -16372,14 +16378,14 @@
       <c r="K303" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="L303" s="38"/>
+      <c r="L303" s="42"/>
       <c r="M303" s="26"/>
       <c r="N303" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="304" spans="1:18" ht="14.5">
-      <c r="A304" s="36"/>
+      <c r="A304" s="44"/>
       <c r="B304" s="35"/>
       <c r="C304" s="35"/>
       <c r="D304" s="22">
@@ -16406,14 +16412,14 @@
       <c r="K304" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="L304" s="38"/>
+      <c r="L304" s="42"/>
       <c r="M304" s="26"/>
       <c r="N304" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="305" spans="1:14" ht="14.5">
-      <c r="A305" s="36"/>
+      <c r="A305" s="44"/>
       <c r="B305" s="35"/>
       <c r="C305" s="35"/>
       <c r="D305" s="22">
@@ -16440,14 +16446,14 @@
       <c r="K305" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="L305" s="38"/>
+      <c r="L305" s="42"/>
       <c r="M305" s="26"/>
       <c r="N305" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="14.5">
-      <c r="A306" s="36"/>
+      <c r="A306" s="44"/>
       <c r="B306" s="35"/>
       <c r="C306" s="35"/>
       <c r="D306" s="22">
@@ -16474,14 +16480,14 @@
       <c r="K306" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="L306" s="38"/>
+      <c r="L306" s="42"/>
       <c r="M306" s="26"/>
       <c r="N306" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="307" spans="1:14" ht="14.5">
-      <c r="A307" s="36"/>
+      <c r="A307" s="44"/>
       <c r="B307" s="35"/>
       <c r="C307" s="35"/>
       <c r="D307" s="22">
@@ -16508,14 +16514,14 @@
       <c r="K307" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="L307" s="38"/>
+      <c r="L307" s="42"/>
       <c r="M307" s="26"/>
       <c r="N307" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="308" spans="1:14" ht="14.5">
-      <c r="A308" s="36"/>
+      <c r="A308" s="44"/>
       <c r="B308" s="35"/>
       <c r="C308" s="35"/>
       <c r="D308" s="22">
@@ -16542,14 +16548,14 @@
       <c r="K308" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="L308" s="38"/>
+      <c r="L308" s="42"/>
       <c r="M308" s="26"/>
       <c r="N308" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:14" ht="14.5">
-      <c r="A309" s="36"/>
+      <c r="A309" s="44"/>
       <c r="B309" s="35"/>
       <c r="C309" s="35"/>
       <c r="D309" s="22">
@@ -16576,14 +16582,14 @@
       <c r="K309" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="L309" s="39"/>
+      <c r="L309" s="43"/>
       <c r="M309" s="26"/>
       <c r="N309" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:14" ht="14.5">
-      <c r="A310" s="36"/>
+      <c r="A310" s="44"/>
       <c r="B310" s="35"/>
       <c r="C310" s="35"/>
       <c r="D310" s="22">
@@ -16610,7 +16616,7 @@
       <c r="K310" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L310" s="40" t="s">
+      <c r="L310" s="36" t="s">
         <v>425</v>
       </c>
       <c r="M310" s="27"/>
@@ -16619,7 +16625,7 @@
       </c>
     </row>
     <row r="311" spans="1:14" ht="14.5">
-      <c r="A311" s="36"/>
+      <c r="A311" s="44"/>
       <c r="B311" s="35"/>
       <c r="C311" s="35"/>
       <c r="D311" s="22">
@@ -16646,14 +16652,14 @@
       <c r="K311" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L311" s="40"/>
+      <c r="L311" s="36"/>
       <c r="M311" s="27"/>
       <c r="N311" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="312" spans="1:14" ht="14.5">
-      <c r="A312" s="36"/>
+      <c r="A312" s="44"/>
       <c r="B312" s="35"/>
       <c r="C312" s="35"/>
       <c r="D312" s="22">
@@ -16680,14 +16686,14 @@
       <c r="K312" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L312" s="40"/>
+      <c r="L312" s="36"/>
       <c r="M312" s="27"/>
       <c r="N312" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="313" spans="1:14" ht="14.5">
-      <c r="A313" s="36"/>
+      <c r="A313" s="44"/>
       <c r="B313" s="35"/>
       <c r="C313" s="35"/>
       <c r="D313" s="22">
@@ -16714,7 +16720,7 @@
       <c r="K313" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L313" s="40" t="s">
+      <c r="L313" s="36" t="s">
         <v>426</v>
       </c>
       <c r="M313" s="27"/>
@@ -16723,7 +16729,7 @@
       </c>
     </row>
     <row r="314" spans="1:14" ht="14.5">
-      <c r="A314" s="36"/>
+      <c r="A314" s="44"/>
       <c r="B314" s="35"/>
       <c r="C314" s="35"/>
       <c r="D314" s="22">
@@ -16750,14 +16756,14 @@
       <c r="K314" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L314" s="40"/>
+      <c r="L314" s="36"/>
       <c r="M314" s="27"/>
       <c r="N314" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="315" spans="1:14" ht="14.5">
-      <c r="A315" s="36"/>
+      <c r="A315" s="44"/>
       <c r="B315" s="35"/>
       <c r="C315" s="35"/>
       <c r="D315" s="22">
@@ -16784,14 +16790,14 @@
       <c r="K315" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L315" s="40"/>
+      <c r="L315" s="36"/>
       <c r="M315" s="27"/>
       <c r="N315" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="316" spans="1:14" ht="14.5">
-      <c r="A316" s="36"/>
+      <c r="A316" s="44"/>
       <c r="B316" s="35"/>
       <c r="C316" s="35"/>
       <c r="D316" s="22">
@@ -16818,7 +16824,7 @@
       <c r="K316" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L316" s="40" t="s">
+      <c r="L316" s="36" t="s">
         <v>427</v>
       </c>
       <c r="M316" s="27"/>
@@ -16827,7 +16833,7 @@
       </c>
     </row>
     <row r="317" spans="1:14" ht="14.5">
-      <c r="A317" s="36"/>
+      <c r="A317" s="44"/>
       <c r="B317" s="35"/>
       <c r="C317" s="35"/>
       <c r="D317" s="22">
@@ -16854,14 +16860,14 @@
       <c r="K317" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L317" s="40"/>
+      <c r="L317" s="36"/>
       <c r="M317" s="27"/>
       <c r="N317" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="14.5">
-      <c r="A318" s="36"/>
+      <c r="A318" s="44"/>
       <c r="B318" s="35"/>
       <c r="C318" s="35"/>
       <c r="D318" s="22">
@@ -16888,14 +16894,14 @@
       <c r="K318" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L318" s="40"/>
+      <c r="L318" s="36"/>
       <c r="M318" s="27"/>
       <c r="N318" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="14.5">
-      <c r="A319" s="36"/>
+      <c r="A319" s="44"/>
       <c r="B319" s="35"/>
       <c r="C319" s="35"/>
       <c r="D319" s="22">
@@ -16922,7 +16928,7 @@
       <c r="K319" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L319" s="40" t="s">
+      <c r="L319" s="36" t="s">
         <v>428</v>
       </c>
       <c r="M319" s="27"/>
@@ -16931,7 +16937,7 @@
       </c>
     </row>
     <row r="320" spans="1:14" ht="14.5">
-      <c r="A320" s="36"/>
+      <c r="A320" s="44"/>
       <c r="B320" s="35"/>
       <c r="C320" s="35"/>
       <c r="D320" s="22">
@@ -16958,14 +16964,14 @@
       <c r="K320" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L320" s="40"/>
+      <c r="L320" s="36"/>
       <c r="M320" s="27"/>
       <c r="N320" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="321" spans="1:18" ht="14.5">
-      <c r="A321" s="36"/>
+      <c r="A321" s="44"/>
       <c r="B321" s="35"/>
       <c r="C321" s="35"/>
       <c r="D321" s="22">
@@ -16992,14 +16998,14 @@
       <c r="K321" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L321" s="40"/>
+      <c r="L321" s="36"/>
       <c r="M321" s="27"/>
       <c r="N321" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="322" spans="1:18" ht="14.5">
-      <c r="A322" s="36"/>
+      <c r="A322" s="44"/>
       <c r="B322" s="35"/>
       <c r="C322" s="35"/>
       <c r="D322" s="22">
@@ -17026,7 +17032,7 @@
       <c r="K322" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L322" s="40" t="s">
+      <c r="L322" s="36" t="s">
         <v>429</v>
       </c>
       <c r="M322" s="27"/>
@@ -17035,7 +17041,7 @@
       </c>
     </row>
     <row r="323" spans="1:18" ht="14.5">
-      <c r="A323" s="36"/>
+      <c r="A323" s="44"/>
       <c r="B323" s="35"/>
       <c r="C323" s="35"/>
       <c r="D323" s="22">
@@ -17062,14 +17068,14 @@
       <c r="K323" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L323" s="40"/>
+      <c r="L323" s="36"/>
       <c r="M323" s="27"/>
       <c r="N323" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:18" ht="14.5">
-      <c r="A324" s="36"/>
+      <c r="A324" s="44"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
       <c r="D324" s="22">
@@ -17096,14 +17102,14 @@
       <c r="K324" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L324" s="40"/>
+      <c r="L324" s="36"/>
       <c r="M324" s="27"/>
       <c r="N324" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="325" spans="1:18" ht="14.5">
-      <c r="A325" s="36"/>
+      <c r="A325" s="44"/>
       <c r="B325" s="35"/>
       <c r="C325" s="35"/>
       <c r="D325" s="22">
@@ -17130,7 +17136,7 @@
       <c r="K325" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L325" s="40" t="s">
+      <c r="L325" s="36" t="s">
         <v>430</v>
       </c>
       <c r="M325" s="27"/>
@@ -17139,7 +17145,7 @@
       </c>
     </row>
     <row r="326" spans="1:18" ht="14.5">
-      <c r="A326" s="36"/>
+      <c r="A326" s="44"/>
       <c r="B326" s="35"/>
       <c r="C326" s="35"/>
       <c r="D326" s="22">
@@ -17166,14 +17172,14 @@
       <c r="K326" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L326" s="40"/>
+      <c r="L326" s="36"/>
       <c r="M326" s="27"/>
       <c r="N326" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="327" spans="1:18" ht="14.5">
-      <c r="A327" s="36"/>
+      <c r="A327" s="44"/>
       <c r="B327" s="35"/>
       <c r="C327" s="35"/>
       <c r="D327" s="22">
@@ -17200,14 +17206,14 @@
       <c r="K327" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L327" s="40"/>
+      <c r="L327" s="36"/>
       <c r="M327" s="27"/>
       <c r="N327" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="328" spans="1:18" ht="14.5">
-      <c r="A328" s="36"/>
+      <c r="A328" s="44"/>
       <c r="B328" s="35"/>
       <c r="C328" s="35"/>
       <c r="D328" s="22">
@@ -17234,7 +17240,7 @@
       <c r="K328" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L328" s="40" t="s">
+      <c r="L328" s="36" t="s">
         <v>431</v>
       </c>
       <c r="M328" s="27"/>
@@ -17243,7 +17249,7 @@
       </c>
     </row>
     <row r="329" spans="1:18" ht="14.5">
-      <c r="A329" s="36"/>
+      <c r="A329" s="44"/>
       <c r="B329" s="35"/>
       <c r="C329" s="35"/>
       <c r="D329" s="22">
@@ -17270,14 +17276,14 @@
       <c r="K329" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L329" s="40"/>
+      <c r="L329" s="36"/>
       <c r="M329" s="27"/>
       <c r="N329" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:18" ht="14.5">
-      <c r="A330" s="36"/>
+      <c r="A330" s="44"/>
       <c r="B330" s="35"/>
       <c r="C330" s="35"/>
       <c r="D330" s="22">
@@ -17304,14 +17310,14 @@
       <c r="K330" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L330" s="40"/>
+      <c r="L330" s="36"/>
       <c r="M330" s="27"/>
       <c r="N330" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="331" spans="1:18" ht="14.5">
-      <c r="A331" s="36"/>
+      <c r="A331" s="44"/>
       <c r="B331" s="35"/>
       <c r="C331" s="35"/>
       <c r="D331" s="22">
@@ -17338,7 +17344,7 @@
       <c r="K331" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L331" s="40" t="s">
+      <c r="L331" s="36" t="s">
         <v>432</v>
       </c>
       <c r="M331" s="27"/>
@@ -17347,7 +17353,7 @@
       </c>
     </row>
     <row r="332" spans="1:18" ht="14.5">
-      <c r="A332" s="36"/>
+      <c r="A332" s="44"/>
       <c r="B332" s="35"/>
       <c r="C332" s="35"/>
       <c r="D332" s="22">
@@ -17374,14 +17380,14 @@
       <c r="K332" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L332" s="40"/>
+      <c r="L332" s="36"/>
       <c r="M332" s="27"/>
       <c r="N332" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="333" spans="1:18" ht="14.5">
-      <c r="A333" s="36"/>
+      <c r="A333" s="44"/>
       <c r="B333" s="35"/>
       <c r="C333" s="35"/>
       <c r="D333" s="22">
@@ -17408,14 +17414,14 @@
       <c r="K333" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L333" s="40"/>
+      <c r="L333" s="36"/>
       <c r="M333" s="27"/>
       <c r="N333" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="334" spans="1:18" ht="14.5">
-      <c r="A334" s="36"/>
+      <c r="A334" s="44"/>
       <c r="B334" s="35"/>
       <c r="C334" s="35">
         <v>21</v>
@@ -17464,7 +17470,7 @@
       </c>
     </row>
     <row r="335" spans="1:18" ht="14.5">
-      <c r="A335" s="36"/>
+      <c r="A335" s="44"/>
       <c r="B335" s="35"/>
       <c r="C335" s="35"/>
       <c r="D335" s="22">
@@ -17511,7 +17517,7 @@
       </c>
     </row>
     <row r="336" spans="1:18" ht="14.5">
-      <c r="A336" s="36"/>
+      <c r="A336" s="44"/>
       <c r="B336" s="35"/>
       <c r="C336" s="35"/>
       <c r="D336" s="22">
@@ -17558,7 +17564,7 @@
       </c>
     </row>
     <row r="337" spans="1:18" ht="14.5">
-      <c r="A337" s="36"/>
+      <c r="A337" s="44"/>
       <c r="B337" s="35"/>
       <c r="C337" s="35"/>
       <c r="D337" s="22">
@@ -17605,7 +17611,7 @@
       </c>
     </row>
     <row r="338" spans="1:18" ht="14.5">
-      <c r="A338" s="36"/>
+      <c r="A338" s="44"/>
       <c r="B338" s="35"/>
       <c r="C338" s="35"/>
       <c r="D338" s="22">
@@ -17652,7 +17658,7 @@
       </c>
     </row>
     <row r="339" spans="1:18" ht="14.5">
-      <c r="A339" s="36"/>
+      <c r="A339" s="44"/>
       <c r="B339" s="35"/>
       <c r="C339" s="35">
         <v>22</v>
@@ -17681,7 +17687,7 @@
       <c r="K339" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L339" s="42" t="s">
+      <c r="L339" s="38" t="s">
         <v>417</v>
       </c>
       <c r="M339" s="26"/>
@@ -17690,7 +17696,7 @@
       </c>
     </row>
     <row r="340" spans="1:18" ht="14.5">
-      <c r="A340" s="36"/>
+      <c r="A340" s="44"/>
       <c r="B340" s="35"/>
       <c r="C340" s="35"/>
       <c r="D340" s="22">
@@ -17717,14 +17723,14 @@
       <c r="K340" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L340" s="43"/>
+      <c r="L340" s="39"/>
       <c r="M340" s="26"/>
       <c r="N340" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:18" ht="14.5">
-      <c r="A341" s="36"/>
+      <c r="A341" s="44"/>
       <c r="B341" s="35"/>
       <c r="C341" s="35"/>
       <c r="D341" s="22">
@@ -17751,14 +17757,14 @@
       <c r="K341" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="L341" s="43"/>
+      <c r="L341" s="39"/>
       <c r="M341" s="26"/>
       <c r="N341" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="342" spans="1:18" ht="14.5">
-      <c r="A342" s="36"/>
+      <c r="A342" s="44"/>
       <c r="B342" s="35"/>
       <c r="C342" s="35"/>
       <c r="D342" s="22">
@@ -17785,14 +17791,14 @@
       <c r="K342" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="L342" s="43"/>
+      <c r="L342" s="39"/>
       <c r="M342" s="26"/>
       <c r="N342" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="343" spans="1:18" ht="14.5">
-      <c r="A343" s="36"/>
+      <c r="A343" s="44"/>
       <c r="B343" s="35"/>
       <c r="C343" s="35"/>
       <c r="D343" s="22">
@@ -17819,14 +17825,14 @@
       <c r="K343" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="L343" s="43"/>
+      <c r="L343" s="39"/>
       <c r="M343" s="26"/>
       <c r="N343" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="344" spans="1:18" ht="14.5">
-      <c r="A344" s="36"/>
+      <c r="A344" s="44"/>
       <c r="B344" s="35"/>
       <c r="C344" s="35"/>
       <c r="D344" s="22">
@@ -17853,14 +17859,14 @@
       <c r="K344" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="L344" s="43"/>
+      <c r="L344" s="39"/>
       <c r="M344" s="26"/>
       <c r="N344" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="345" spans="1:18" ht="14.5">
-      <c r="A345" s="36"/>
+      <c r="A345" s="44"/>
       <c r="B345" s="35"/>
       <c r="C345" s="35"/>
       <c r="D345" s="22">
@@ -17887,14 +17893,14 @@
       <c r="K345" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="L345" s="43"/>
+      <c r="L345" s="39"/>
       <c r="M345" s="26"/>
       <c r="N345" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="346" spans="1:18" ht="14.5">
-      <c r="A346" s="36"/>
+      <c r="A346" s="44"/>
       <c r="B346" s="35"/>
       <c r="C346" s="35"/>
       <c r="D346" s="22">
@@ -17921,14 +17927,14 @@
       <c r="K346" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="L346" s="43"/>
+      <c r="L346" s="39"/>
       <c r="M346" s="26"/>
       <c r="N346" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="347" spans="1:18" ht="14.5">
-      <c r="A347" s="36"/>
+      <c r="A347" s="44"/>
       <c r="B347" s="35"/>
       <c r="C347" s="35"/>
       <c r="D347" s="22">
@@ -17955,14 +17961,14 @@
       <c r="K347" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="L347" s="44"/>
+      <c r="L347" s="40"/>
       <c r="M347" s="26"/>
       <c r="N347" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:18" ht="14.5">
-      <c r="A348" s="36"/>
+      <c r="A348" s="44"/>
       <c r="B348" s="35"/>
       <c r="C348" s="35"/>
       <c r="D348" s="22">
@@ -17989,7 +17995,7 @@
       <c r="K348" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L348" s="40" t="s">
+      <c r="L348" s="36" t="s">
         <v>425</v>
       </c>
       <c r="M348" s="27"/>
@@ -17998,7 +18004,7 @@
       </c>
     </row>
     <row r="349" spans="1:18" ht="14.5">
-      <c r="A349" s="36"/>
+      <c r="A349" s="44"/>
       <c r="B349" s="35"/>
       <c r="C349" s="35"/>
       <c r="D349" s="22">
@@ -18025,14 +18031,14 @@
       <c r="K349" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L349" s="40"/>
+      <c r="L349" s="36"/>
       <c r="M349" s="27"/>
       <c r="N349" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="350" spans="1:18" ht="14.5">
-      <c r="A350" s="36"/>
+      <c r="A350" s="44"/>
       <c r="B350" s="35"/>
       <c r="C350" s="35"/>
       <c r="D350" s="22">
@@ -18059,14 +18065,14 @@
       <c r="K350" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L350" s="40"/>
+      <c r="L350" s="36"/>
       <c r="M350" s="27"/>
       <c r="N350" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:18" ht="14.5">
-      <c r="A351" s="36"/>
+      <c r="A351" s="44"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
       <c r="D351" s="22">
@@ -18093,7 +18099,7 @@
       <c r="K351" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L351" s="40" t="s">
+      <c r="L351" s="36" t="s">
         <v>426</v>
       </c>
       <c r="M351" s="27"/>
@@ -18102,7 +18108,7 @@
       </c>
     </row>
     <row r="352" spans="1:18" ht="14.5">
-      <c r="A352" s="36"/>
+      <c r="A352" s="44"/>
       <c r="B352" s="35"/>
       <c r="C352" s="35"/>
       <c r="D352" s="22">
@@ -18129,14 +18135,14 @@
       <c r="K352" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L352" s="40"/>
+      <c r="L352" s="36"/>
       <c r="M352" s="27"/>
       <c r="N352" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:14" ht="14.5">
-      <c r="A353" s="36"/>
+      <c r="A353" s="44"/>
       <c r="B353" s="35"/>
       <c r="C353" s="35"/>
       <c r="D353" s="22">
@@ -18163,14 +18169,14 @@
       <c r="K353" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L353" s="40"/>
+      <c r="L353" s="36"/>
       <c r="M353" s="27"/>
       <c r="N353" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:14" ht="14.5">
-      <c r="A354" s="36"/>
+      <c r="A354" s="44"/>
       <c r="B354" s="35"/>
       <c r="C354" s="35"/>
       <c r="D354" s="22">
@@ -18197,7 +18203,7 @@
       <c r="K354" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L354" s="40" t="s">
+      <c r="L354" s="36" t="s">
         <v>427</v>
       </c>
       <c r="M354" s="27"/>
@@ -18206,7 +18212,7 @@
       </c>
     </row>
     <row r="355" spans="1:14" ht="14.5">
-      <c r="A355" s="36"/>
+      <c r="A355" s="44"/>
       <c r="B355" s="35"/>
       <c r="C355" s="35"/>
       <c r="D355" s="22">
@@ -18233,14 +18239,14 @@
       <c r="K355" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L355" s="40"/>
+      <c r="L355" s="36"/>
       <c r="M355" s="27"/>
       <c r="N355" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="356" spans="1:14" ht="14.5">
-      <c r="A356" s="36"/>
+      <c r="A356" s="44"/>
       <c r="B356" s="35"/>
       <c r="C356" s="35"/>
       <c r="D356" s="22">
@@ -18267,14 +18273,14 @@
       <c r="K356" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L356" s="40"/>
+      <c r="L356" s="36"/>
       <c r="M356" s="27"/>
       <c r="N356" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="357" spans="1:14" ht="14.5">
-      <c r="A357" s="36"/>
+      <c r="A357" s="44"/>
       <c r="B357" s="35"/>
       <c r="C357" s="35"/>
       <c r="D357" s="22">
@@ -18301,7 +18307,7 @@
       <c r="K357" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L357" s="40" t="s">
+      <c r="L357" s="36" t="s">
         <v>428</v>
       </c>
       <c r="M357" s="27"/>
@@ -18310,7 +18316,7 @@
       </c>
     </row>
     <row r="358" spans="1:14" ht="14.5">
-      <c r="A358" s="36"/>
+      <c r="A358" s="44"/>
       <c r="B358" s="35"/>
       <c r="C358" s="35"/>
       <c r="D358" s="22">
@@ -18337,14 +18343,14 @@
       <c r="K358" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L358" s="40"/>
+      <c r="L358" s="36"/>
       <c r="M358" s="27"/>
       <c r="N358" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="359" spans="1:14" ht="14.5">
-      <c r="A359" s="36"/>
+      <c r="A359" s="44"/>
       <c r="B359" s="35"/>
       <c r="C359" s="35"/>
       <c r="D359" s="22">
@@ -18371,14 +18377,14 @@
       <c r="K359" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L359" s="40"/>
+      <c r="L359" s="36"/>
       <c r="M359" s="27"/>
       <c r="N359" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="360" spans="1:14" ht="14.5">
-      <c r="A360" s="36"/>
+      <c r="A360" s="44"/>
       <c r="B360" s="35"/>
       <c r="C360" s="35"/>
       <c r="D360" s="22">
@@ -18405,7 +18411,7 @@
       <c r="K360" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L360" s="40" t="s">
+      <c r="L360" s="36" t="s">
         <v>429</v>
       </c>
       <c r="M360" s="27"/>
@@ -18414,7 +18420,7 @@
       </c>
     </row>
     <row r="361" spans="1:14" ht="14.5">
-      <c r="A361" s="36"/>
+      <c r="A361" s="44"/>
       <c r="B361" s="35"/>
       <c r="C361" s="35"/>
       <c r="D361" s="22">
@@ -18441,14 +18447,14 @@
       <c r="K361" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L361" s="40"/>
+      <c r="L361" s="36"/>
       <c r="M361" s="27"/>
       <c r="N361" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="362" spans="1:14" ht="14.5">
-      <c r="A362" s="36"/>
+      <c r="A362" s="44"/>
       <c r="B362" s="35"/>
       <c r="C362" s="35"/>
       <c r="D362" s="22">
@@ -18475,14 +18481,14 @@
       <c r="K362" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L362" s="40"/>
+      <c r="L362" s="36"/>
       <c r="M362" s="27"/>
       <c r="N362" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="14.5">
-      <c r="A363" s="36"/>
+      <c r="A363" s="44"/>
       <c r="B363" s="35"/>
       <c r="C363" s="35"/>
       <c r="D363" s="22">
@@ -18509,7 +18515,7 @@
       <c r="K363" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L363" s="40" t="s">
+      <c r="L363" s="36" t="s">
         <v>430</v>
       </c>
       <c r="M363" s="27"/>
@@ -18518,7 +18524,7 @@
       </c>
     </row>
     <row r="364" spans="1:14" ht="14.5">
-      <c r="A364" s="36"/>
+      <c r="A364" s="44"/>
       <c r="B364" s="35"/>
       <c r="C364" s="35"/>
       <c r="D364" s="22">
@@ -18545,14 +18551,14 @@
       <c r="K364" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L364" s="40"/>
+      <c r="L364" s="36"/>
       <c r="M364" s="27"/>
       <c r="N364" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="14.5">
-      <c r="A365" s="36"/>
+      <c r="A365" s="44"/>
       <c r="B365" s="35"/>
       <c r="C365" s="35"/>
       <c r="D365" s="22">
@@ -18579,14 +18585,14 @@
       <c r="K365" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L365" s="40"/>
+      <c r="L365" s="36"/>
       <c r="M365" s="27"/>
       <c r="N365" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="366" spans="1:14" ht="14.5">
-      <c r="A366" s="36"/>
+      <c r="A366" s="44"/>
       <c r="B366" s="35"/>
       <c r="C366" s="35"/>
       <c r="D366" s="22">
@@ -18613,7 +18619,7 @@
       <c r="K366" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L366" s="40" t="s">
+      <c r="L366" s="36" t="s">
         <v>431</v>
       </c>
       <c r="M366" s="27"/>
@@ -18622,7 +18628,7 @@
       </c>
     </row>
     <row r="367" spans="1:14" ht="14.5">
-      <c r="A367" s="36"/>
+      <c r="A367" s="44"/>
       <c r="B367" s="35"/>
       <c r="C367" s="35"/>
       <c r="D367" s="22">
@@ -18649,14 +18655,14 @@
       <c r="K367" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L367" s="40"/>
+      <c r="L367" s="36"/>
       <c r="M367" s="27"/>
       <c r="N367" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="368" spans="1:14" ht="14.5">
-      <c r="A368" s="36"/>
+      <c r="A368" s="44"/>
       <c r="B368" s="35"/>
       <c r="C368" s="35"/>
       <c r="D368" s="22">
@@ -18683,14 +18689,14 @@
       <c r="K368" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L368" s="40"/>
+      <c r="L368" s="36"/>
       <c r="M368" s="27"/>
       <c r="N368" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="369" spans="1:14" ht="14.5">
-      <c r="A369" s="36"/>
+      <c r="A369" s="44"/>
       <c r="B369" s="35"/>
       <c r="C369" s="35"/>
       <c r="D369" s="22">
@@ -18717,7 +18723,7 @@
       <c r="K369" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L369" s="40" t="s">
+      <c r="L369" s="36" t="s">
         <v>432</v>
       </c>
       <c r="M369" s="27"/>
@@ -18726,7 +18732,7 @@
       </c>
     </row>
     <row r="370" spans="1:14" ht="14.5">
-      <c r="A370" s="36"/>
+      <c r="A370" s="44"/>
       <c r="B370" s="35"/>
       <c r="C370" s="35"/>
       <c r="D370" s="22">
@@ -18753,14 +18759,14 @@
       <c r="K370" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L370" s="40"/>
+      <c r="L370" s="36"/>
       <c r="M370" s="27"/>
       <c r="N370" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="371" spans="1:14" ht="14.5">
-      <c r="A371" s="36"/>
+      <c r="A371" s="44"/>
       <c r="B371" s="35"/>
       <c r="C371" s="35"/>
       <c r="D371" s="22">
@@ -18787,7 +18793,7 @@
       <c r="K371" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L371" s="40"/>
+      <c r="L371" s="36"/>
       <c r="M371" s="27"/>
       <c r="N371" t="s">
         <v>349</v>
@@ -18798,6 +18804,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A117:A371"/>
+    <mergeCell ref="B117:B371"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A36"/>
+    <mergeCell ref="A37:A116"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B36"/>
+    <mergeCell ref="B37:B116"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="C15:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="C182:C186"/>
+    <mergeCell ref="C187:C219"/>
+    <mergeCell ref="C220:C224"/>
+    <mergeCell ref="C225:C257"/>
+    <mergeCell ref="C258:C262"/>
+    <mergeCell ref="C263:C295"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="C301:C333"/>
+    <mergeCell ref="C334:C338"/>
+    <mergeCell ref="C339:C371"/>
+    <mergeCell ref="L7:L33"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L187:L195"/>
+    <mergeCell ref="L196:L198"/>
+    <mergeCell ref="L199:L201"/>
+    <mergeCell ref="L202:L204"/>
+    <mergeCell ref="L205:L207"/>
+    <mergeCell ref="L208:L210"/>
+    <mergeCell ref="L211:L213"/>
+    <mergeCell ref="L214:L216"/>
+    <mergeCell ref="L217:L219"/>
+    <mergeCell ref="L225:L233"/>
+    <mergeCell ref="L234:L236"/>
+    <mergeCell ref="L237:L239"/>
+    <mergeCell ref="L240:L242"/>
+    <mergeCell ref="L243:L245"/>
+    <mergeCell ref="L246:L248"/>
+    <mergeCell ref="L249:L251"/>
+    <mergeCell ref="L252:L254"/>
+    <mergeCell ref="L255:L257"/>
+    <mergeCell ref="L263:L271"/>
+    <mergeCell ref="L272:L274"/>
+    <mergeCell ref="L275:L277"/>
+    <mergeCell ref="L278:L280"/>
+    <mergeCell ref="L281:L283"/>
+    <mergeCell ref="L284:L286"/>
+    <mergeCell ref="L287:L289"/>
+    <mergeCell ref="L360:L362"/>
+    <mergeCell ref="L363:L365"/>
+    <mergeCell ref="L290:L292"/>
+    <mergeCell ref="L293:L295"/>
+    <mergeCell ref="L301:L309"/>
+    <mergeCell ref="L310:L312"/>
+    <mergeCell ref="L313:L315"/>
+    <mergeCell ref="L316:L318"/>
+    <mergeCell ref="L319:L321"/>
+    <mergeCell ref="L322:L324"/>
+    <mergeCell ref="L325:L327"/>
     <mergeCell ref="L366:L368"/>
     <mergeCell ref="L369:L371"/>
     <mergeCell ref="M3:M36"/>
@@ -18822,92 +18914,6 @@
     <mergeCell ref="L351:L353"/>
     <mergeCell ref="L354:L356"/>
     <mergeCell ref="L357:L359"/>
-    <mergeCell ref="L360:L362"/>
-    <mergeCell ref="L363:L365"/>
-    <mergeCell ref="L290:L292"/>
-    <mergeCell ref="L293:L295"/>
-    <mergeCell ref="L301:L309"/>
-    <mergeCell ref="L310:L312"/>
-    <mergeCell ref="L313:L315"/>
-    <mergeCell ref="L316:L318"/>
-    <mergeCell ref="L319:L321"/>
-    <mergeCell ref="L322:L324"/>
-    <mergeCell ref="L325:L327"/>
-    <mergeCell ref="L252:L254"/>
-    <mergeCell ref="L255:L257"/>
-    <mergeCell ref="L263:L271"/>
-    <mergeCell ref="L272:L274"/>
-    <mergeCell ref="L275:L277"/>
-    <mergeCell ref="L278:L280"/>
-    <mergeCell ref="L281:L283"/>
-    <mergeCell ref="L284:L286"/>
-    <mergeCell ref="L287:L289"/>
-    <mergeCell ref="C258:C262"/>
-    <mergeCell ref="C263:C295"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="C301:C333"/>
-    <mergeCell ref="C334:C338"/>
-    <mergeCell ref="C339:C371"/>
-    <mergeCell ref="L7:L33"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L187:L195"/>
-    <mergeCell ref="L196:L198"/>
-    <mergeCell ref="L199:L201"/>
-    <mergeCell ref="L202:L204"/>
-    <mergeCell ref="L205:L207"/>
-    <mergeCell ref="L208:L210"/>
-    <mergeCell ref="L211:L213"/>
-    <mergeCell ref="L214:L216"/>
-    <mergeCell ref="L217:L219"/>
-    <mergeCell ref="L225:L233"/>
-    <mergeCell ref="L234:L236"/>
-    <mergeCell ref="L237:L239"/>
-    <mergeCell ref="L240:L242"/>
-    <mergeCell ref="L243:L245"/>
-    <mergeCell ref="L246:L248"/>
-    <mergeCell ref="L249:L251"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="C182:C186"/>
-    <mergeCell ref="C187:C219"/>
-    <mergeCell ref="C220:C224"/>
-    <mergeCell ref="C225:C257"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="A117:A371"/>
-    <mergeCell ref="B117:B371"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A36"/>
-    <mergeCell ref="A37:A116"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B36"/>
-    <mergeCell ref="B37:B116"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="C15:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C110"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19768,8 +19774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -19865,9 +19871,7 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="34" t="s">
-        <v>225</v>
-      </c>
+      <c r="A3" s="34"/>
       <c r="B3" s="5" t="s">
         <v>230</v>
       </c>
@@ -20231,8 +20235,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A6:A10"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
